--- a/medicine/Psychotrope/Vente_des_hospices_de_Beaune/Vente_des_hospices_de_Beaune.xlsx
+++ b/medicine/Psychotrope/Vente_des_hospices_de_Beaune/Vente_des_hospices_de_Beaune.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La vente des Vins des Hospices de Beaune est une prestigieuse vente aux enchères traditionnelle de charité des vins de Bourgogne des Hospices de Beaune. Le résultat des ventes orchestrées par Christie's de 2005 à 2020, puis par Sotheby's depuis 2021, est destiné depuis cinq siècles au financement des hôpitaux et maisons de retraite de Beaune en Bourgogne, à la recherche médicale et à des œuvres caritatives. Cette vente de vins de Bourgogne est la plus célèbre du monde et fait traditionnellement office de baromètre international du marché des vins de prestige.
@@ -512,10 +524,12 @@
           <t>Contexte</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Hospices de Beaune sont fondés en 1443 par Nicolas Rolin et son épouse Guigone de Salins. Les hospices sont propriétaires d'un prestigieux domaine viticole bourguignon grâce à des dons et héritages de riches seigneurs bourguignons du Moyen Âge et à cinq siècles de gestion de patrimoine.
-Le domaine est actuellement constitué de près de 61 hectares de vignes (50 de pinot noir et 10 de chardonnay) situées notamment dans le vignoble de la côte de Beaune et dans le vignoble de la côte de Nuits dont la plupart des parcelles sont situées dans des zones d'appellation prestigieuses, de premiers crus et des grands crus d'exceptions[1].
+Le domaine est actuellement constitué de près de 61 hectares de vignes (50 de pinot noir et 10 de chardonnay) situées notamment dans le vignoble de la côte de Beaune et dans le vignoble de la côte de Nuits dont la plupart des parcelles sont situées dans des zones d'appellation prestigieuses, de premiers crus et des grands crus d'exceptions.
 Les Hospices de Beaune, devenues aujourd'hui musée, ont été modernisées en Hospices Civils de Beaune qui emploient à ce jour 700 salariés et financent : 
 Le centre Hospitalier Philippe Le Bon de courts séjours de Beaune ouvert en 1971
 Le centre Nicolas Rolin de long et moyen séjour
@@ -552,11 +566,13 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La première vente remonte à 1859, la réputation devient mondiale en 1924.
-En 1934, la Confrérie des Chevaliers du Tastevin instaure les Trois Glorieuses, manifestation culturelle dont fait partie la vente des Hospices de Beaune[2].
-La vente se déroulait initialement dans la cour des Hospices de Beaune, et désormais dans les halles de Beaune situées face au bâtiment[3].
+En 1934, la Confrérie des Chevaliers du Tastevin instaure les Trois Glorieuses, manifestation culturelle dont fait partie la vente des Hospices de Beaune.
+La vente se déroulait initialement dans la cour des Hospices de Beaune, et désormais dans les halles de Beaune situées face au bâtiment.
 Les quarante-cinq cuvées de prestige obtenues chaque année sont vendues l'année même sous forme de pièces, soit près de 400 à 600 fûts de 228 litres depuis 1794 (soit 288 bouteilles après l'élevage) sous forme d'enchères traditionnelle de charité (à l'origine « à la bougie », désormais abandonnée) à la renommée mondiale, le troisième dimanche de novembre.
 De 2005 à 2020, la vente est orchestrée par Christie's. La maison de ventes Sotheby's opère désormais la vente depuis 2021.
 	Salle des ventes
@@ -593,12 +609,89 @@
           <t>Cuvées</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le régisseur du vignoble décide de la conduite des 60 hectares de vignes et élabore chaque année les 50 cuvées historiques[4]. La production de l’année est ensuite mise en vente le 3ème dimanche de novembre suivant la récolte[4].
-Vins rouges
-En 2022, les vins rouges, cépage pinot noir, regroupent 34 cuvées : 8 en appellation Grands Crus, 21 en appellation premiers crus et 5 en appellation Village[5].
-Grands crus
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le régisseur du vignoble décide de la conduite des 60 hectares de vignes et élabore chaque année les 50 cuvées historiques. La production de l’année est ensuite mise en vente le 3ème dimanche de novembre suivant la récolte.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Vente_des_hospices_de_Beaune</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Vente_des_hospices_de_Beaune</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Cuvées</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Vins rouges</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 2022, les vins rouges, cépage pinot noir, regroupent 34 cuvées : 8 en appellation Grands Crus, 21 en appellation premiers crus et 5 en appellation Village.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Vente_des_hospices_de_Beaune</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Vente_des_hospices_de_Beaune</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Cuvées</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Vins rouges</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Grands crus</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Clos de la Roche Grand Cru - Cuvée Georges Kritter
 Clos de la Roche Grand Cru - Cuvée Cyrot-Chaudron
 Corton Grand Cru - Cuvée Charlotte Dumay
@@ -607,7 +700,47 @@
 Corton Clos du Roi Grand Cru - Cuvée Baronne du Baÿ
 Echezeaux Grand Cru - Cuvée Jean-Luc Bissey
 Mazis-Chambertin Grand Cru - Cuvée Madeleine Collignon
-Premiers crus
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Vente_des_hospices_de_Beaune</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Vente_des_hospices_de_Beaune</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Cuvées</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Vins rouges</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Premiers crus</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Auxey-Duresses 1er Cru - Cuvée Boillot
 Beaune 1er Cru - Cuvée Brunet
 Beaune 1er Cru - Cuvée Clos des Avaux
@@ -629,21 +762,176 @@
 Volnay 1er Cru - Cuvée Général Muteau
 Volnay Les Santenots 1er Cru - Cuvée Gauvain
 Volnay Les Santenots 1er Cru - Cuvée Jéhan de Massol
-Village
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Vente_des_hospices_de_Beaune</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Vente_des_hospices_de_Beaune</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Cuvées</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Vins rouges</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Village</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Monthelie - Cuvée Lebelin
 Pommard - Cuvée Billardet
 Pommard - Cuvée Raymond Cyrot
 Pommard - Cuvée Suzanne Chaudron
 Santenay - Cuvée Christine Friedberg
-Vins blancs
-En 2022, les vins blancs, cépage chardonnay, regroupent 18 cuvées : 5 en appellation Grands Crus, 8 en appellation premiers crus et 5 en appellation Village[5].
-Grands crus
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Vente_des_hospices_de_Beaune</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Vente_des_hospices_de_Beaune</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Cuvées</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Vins blancs</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 2022, les vins blancs, cépage chardonnay, regroupent 18 cuvées : 5 en appellation Grands Crus, 8 en appellation premiers crus et 5 en appellation Village.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Vente_des_hospices_de_Beaune</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Vente_des_hospices_de_Beaune</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Cuvées</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Vins blancs</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Grands crus</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Bâtard-Montrachet Grand Cru - Cuvée Dames de Flandres
 Corton Charlemagne Grand Cru - Cuvée François de Salins
 Corton Charlemagne Grand Cru - Cuvée Roi Soleil
 Corton Grand Cru - "Cuvée Docteur Peste"
 Corton Vergennes Grand Cru - Cuvée Paul Chanson
-Premiers crus
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Vente_des_hospices_de_Beaune</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Vente_des_hospices_de_Beaune</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Cuvées</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Vins blancs</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Premiers crus</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Beaune 1er Cru - Cuvée Suzanne &amp; Raymond
 Beaune 1er Cru - Cuvée Hugues et Louis Bétault
 Chablis 1er Cru - Cuvée Jean-Marc Brocard
@@ -652,7 +940,47 @@
 Meursault Genevrières 1er Cru - Cuvée Baudot
 Meursault Genevrières 1er Cru - Cuvée Philippe
 Meursault Poruzots 1er Cru - Cuvée Jéhan Humblot
-Village
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Vente_des_hospices_de_Beaune</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Vente_des_hospices_de_Beaune</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Cuvées</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Vins blancs</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Village</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Meursault - Cuvée Goureau
 Meursault - Cuvée Loppin
 Pouilly-Fuissé - Cuvée Françoise Poisard
@@ -666,111 +994,152 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Vente_des_hospices_de_Beaune</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Psychotrope/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Vente_des_hospices_de_Beaune</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Vente_des_hospices_de_Beaune</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Vente_des_hospices_de_Beaune</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
         <is>
           <t>Festivités</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La Confrérie des Chevaliers du Tastevin instaure les Trois Glorieuses, manifestation culturelle comprenant le repas au Clos Vougeot, la vente des vins des Hospices de Beaune, et la Paulée de Meursault[2].
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La Confrérie des Chevaliers du Tastevin instaure les Trois Glorieuses, manifestation culturelle comprenant le repas au Clos Vougeot, la vente des vins des Hospices de Beaune, et la Paulée de Meursault.
 À cette occasion, les élèves de l'école hôtelière internationale Savoie-Léman de Thonon-les-Bains, se chargent du service de plus de 500 convives, depuis 1955.
 Depuis 1986 ont lieu deux courses hors stade réputées, un semi-marathon et les foulées beaunoises, au milieu des prestigieux vignobles de côte d'or (Pommard, Meursault et toute la côte de Beaune).
-Aujourd’hui, de nombreux concerts, activités et spectacles de rue font office d’animation dans la ville durant tout le weekend. Ces activités sont aujourd'hui préparées par le CFDB[6].
+Aujourd’hui, de nombreux concerts, activités et spectacles de rue font office d’animation dans la ville durant tout le weekend. Ces activités sont aujourd'hui préparées par le CFDB.
 	Beaunois costumés
 	Stands commerçants et groupes folkloriques d'animation de rue
 </t>
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Vente_des_hospices_de_Beaune</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Portail:Psychotrope/Articles liés</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Vente_des_hospices_de_Beaune</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Vente_des_hospices_de_Beaune</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Vente_des_hospices_de_Beaune</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
         <is>
           <t>Résultats des ventes</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>La vente fluctue en fonction de la qualité du millésime, de la quantité de la récolte (et donc du nombre de pièces), qui créé ou non la rareté.
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La vente fluctue en fonction de la qualité du millésime, de la quantité de la récolte (et donc du nombre de pièces), qui créé ou non la rareté.
 Les prix correspondent aux enchères, "au marteau", c'est-à-dire sans le pourcentage rajouté à l’enchère payée à l’organisateur de la vente.
 Ces prix sont donnés sans considérer l’inflation qui fluctue chaque année, pour un ordre d'idée sur la période : 2 000 € en 1980, valent 5 597 € en 2015 (soit une augmentation de 180%).
-Records historiques des ventes
-2010 : « pièce du président » de 500 litres adjugée par Fabrice Luchini à 400 000 €.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Vente_des_hospices_de_Beaune</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Vente_des_hospices_de_Beaune</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Résultats des ventes</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Records historiques des ventes</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>2010 : « pièce du président » de 500 litres adjugée par Fabrice Luchini à 400 000 €.
 2012 : « pièce du président » de 350 litres adjugée par Carla Bruni-Sarkozy à 270 000 €.
 2013 : record des enchères des ventes des Hospices de Beaune présidée par Clotilde Courau à 6,3 millions € (malgré la plus modeste récolte depuis 30 ans).
 2015 :
 « pièce du président » de 228 litres adjugée par Claire Chazal et Christophe Lambert à 480 000 €, pour un Corton-Renardes Grand Cru 2015.
-L'ensemble de la vente atteint une valeur record de 11 347 609 €[16] pour 575 pièces (tonneaux de 228 litres) de vin représentant 48 cuvées - 33 rouges et 15 blancs.
+L'ensemble de la vente atteint une valeur record de 11 347 609 € pour 575 pièces (tonneaux de 228 litres) de vin représentant 48 cuvées - 33 rouges et 15 blancs.
 2017 : La vente totalise 13 529 301 € soit "le meilleur résultat jamais réalisé pour la vente du Domaine des Hospices de Beaune" mais ce record a été battu l'année d'après avec 14 199 350 €.
-2021 : Nouveau record pour la « pièce du président » adjugée par Pio Marmaï et Jeanne Balibar  à 800 000 €[17]
+2021 : Nouveau record pour la « pièce du président » adjugée par Pio Marmaï et Jeanne Balibar  à 800 000 €
 2022 : Record du prix moyen par pièce : 35 974 €. Ce record est battu tous les deux ans en moyenne depuis une dizaine d'années.</t>
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Vente_des_hospices_de_Beaune</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Portail:Psychotrope/Articles liés</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Vente_des_hospices_de_Beaune</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Vente_des_hospices_de_Beaune</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Vente_des_hospices_de_Beaune</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
         <is>
           <t>Présidents et présidentes</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Liste des présidents et présidentes de la vente, de 1976 à aujourd'hui[18],[19] :
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Liste des présidents et présidentes de la vente, de 1976 à aujourd'hui, :
 1976 : Comte de Kechove de Denterghe
 1977 : Bertil de Suède et Lilian de Suède
 1978 : Lino Ventura
@@ -814,7 +1183,7 @@
 2016 : Valérie Bonneton, Claude Lelouch, Virginie Ledoyen et Khatia Buniatishvili
 2017 : Charles Aznavour, Marc-Olivier Fogiel, Julie Depardieu et Agnès B
 2018 : Nathalie Baye, Emmanuelle Béart, Pascal Elbé et Erik Orsenna
-2019 : Tony Parker, Ophélie Meunier, Christophe Lambert et François-Xavier Demaison[20]
+2019 : Tony Parker, Ophélie Meunier, Christophe Lambert et François-Xavier Demaison
 2020 : Marc Lavoine
 2021 : Pio Marmai et Jeanne Balibar
 2022 : Benoît Magimel et Flavie Flament
